--- a/biology/Zoologie/Fous_d'animaux/Fous_d'animaux.xlsx
+++ b/biology/Zoologie/Fous_d'animaux/Fous_d'animaux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fous_d%27animaux</t>
+          <t>Fous_d'animaux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fous  d'animaux (ou L'esprit animal ou encore Passion animaux selon les saisons) est une série documentaire en 40 épisodes de 26 minutes produite par Léo Productions, et diffusée du 5 juin 1995 au 1er janvier 2001 sur La Cinquième dans le cadre du programme Le Monde des animaux. Les deux derniers épisodes sont diffusés les 21 et 22 février 2005 sur Planète.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fous_d%27animaux</t>
+          <t>Fous_d'animaux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chaque épisode de la série part à la rencontre d'un passionné ou d'une équipe de scientifique étudiant une espèce animale et mènent le combat pour la préservation, dont certaines sont en voie d'extinction.   
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fous_d%27animaux</t>
+          <t>Fous_d'animaux</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -550,7 +566,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fous_d%27animaux</t>
+          <t>Fous_d'animaux</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -568,7 +584,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Auteur : Jean-Louis Burgat
 Réalisateurs : Jean-Yves Collet, Bruno Vienne, Jeanne Mascolo de Filippis, Isabelle Roumeguère
